--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/20_Burdur_2024.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/20_Burdur_2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D613502-1EE9-46BC-8CAC-9164F24D5A68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D02C019-6B62-4371-87D6-A847960B3D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="662" xr2:uid="{110813B9-5B8D-499A-B9F1-99D0A8272F76}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="662" xr2:uid="{614B3726-2FA9-41EA-81BD-6DDE3467E617}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="135" r:id="rId1"/>
@@ -901,13 +901,13 @@
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{8B3A1FAB-1A26-45AE-8123-B39147380B59}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{5BA9B3AD-D0D1-4727-8826-B9676806AE47}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{4DFB7956-68F4-402F-B450-B847F79275C9}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{CCB3AF71-CD4E-4BC0-8C81-EB9114DF345C}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{021FE460-5E53-48FC-8DDE-DCDCD94C83D1}"/>
-    <cellStyle name="Not 2" xfId="6" xr:uid="{59CBFF51-0237-499E-AC60-E4DD6F90959E}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{0251B31E-D4F3-434F-B681-FAACC4579AD7}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{1D4E5833-BFE3-4F71-B65A-A9281676A5E3}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{5F000C80-A394-4625-A72F-8F45FF01652B}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{A38BB212-226F-48F3-BACD-9F8C269A55D9}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{28C61529-8C8E-4296-9CF1-45782C5897D1}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{C2AA0B3D-A42C-4E0E-81D2-5708ACEE44D9}"/>
+    <cellStyle name="Not 2" xfId="6" xr:uid="{C168F741-A0F2-45A7-A7F5-98456B75AF74}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{14930FD4-9497-4C49-AE93-AA8093597C80}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1277,7 +1277,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A8EAE4A-5D19-4A53-B9B9-1363B8AA20BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{098D3A5A-3CFE-4DB1-96BF-896B0D1E949E}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2554,7 +2554,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{518D0660-FEED-40FD-8A39-4BC1EF784E0A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7487D551-B81A-4020-88FB-D8E3F7AA29BC}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3829,7 +3829,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87F6310D-A981-43EA-BFAB-661405CDF039}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15685E71-DF7E-4DB7-A56E-C258F31FA5DA}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5100,7 +5100,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F9DF867-94CD-4AC2-A49E-D74801080CD0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9175E3F-1753-4ED2-B636-82058FD95E38}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6367,7 +6367,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA5EF28A-8221-4BB5-9C17-56BFF35D57E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A854455-7398-4A9A-8809-C3C7770B622E}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7644,7 +7644,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91B3409E-5328-4DF1-A75B-C47CC9E2A52A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E7D2C5-408C-498C-A879-D78A56A66F59}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -8911,7 +8911,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABFAA010-C006-4FBD-92A6-98EF43F0C28A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67D11194-FC4E-4655-8750-DB29210C6E6F}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10180,7 +10180,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFEECA3C-C929-43E4-8961-9C3F011A7EFB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5E1865D-66D9-42FA-BDB8-BA62D9A83579}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11449,7 +11449,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0E58EDE-2181-4C9A-8739-222BE8C0DAB5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{358D2CA5-FAE5-43EE-AC95-8BB6190714C7}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -12722,7 +12722,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B139AB84-0BA4-4E01-9338-A9CBFF151430}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{779BD618-A23F-495C-995E-3036ABDDCA09}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -13995,7 +13995,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C0B307D-ACD9-4870-97D3-2BCBB6CB1C74}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4A52568-C270-46DC-B05E-0361B0C98389}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15270,7 +15270,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30921CCF-5659-4A1A-8CA8-24B72A59D032}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C1BDBED-7DF6-4351-A96E-5C24D55276A2}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
